--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.121119.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.121119.xlsx_with_dialog_acts.xlsx
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2679,12 +2679,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3635,12 +3635,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3711,12 +3711,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4209,12 +4209,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4323,12 +4323,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4437,12 +4437,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4475,12 +4475,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4551,12 +4551,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4817,12 +4817,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5197,12 +5197,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6149,12 +6149,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6641,12 +6641,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6755,12 +6755,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7633,12 +7633,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7975,12 +7975,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8051,12 +8051,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8165,12 +8165,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8849,12 +8849,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8887,12 +8887,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9153,12 +9153,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9229,12 +9229,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9875,12 +9875,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10445,12 +10445,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10483,12 +10483,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10597,12 +10597,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10673,12 +10673,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11621,12 +11621,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11697,12 +11697,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11735,12 +11735,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11891,12 +11891,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12081,12 +12081,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12385,12 +12385,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12575,12 +12575,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12841,12 +12841,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13601,12 +13601,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14627,12 +14627,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14817,12 +14817,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15159,12 +15159,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15463,12 +15463,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15539,12 +15539,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15577,12 +15577,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15843,12 +15843,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16071,12 +16071,12 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
